--- a/sampleBook/Book2.xlsx
+++ b/sampleBook/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sh-kobayashi\Desktop\excel読み込みマン\sampleBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6A130-37B6-43F9-A91B-4B7E0C1E3DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4F4727-4B0B-4072-9AEE-7FEBCB947CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{04C2B92F-A641-4319-BBDC-608A9E476C80}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{04C2B92F-A641-4319-BBDC-608A9E476C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAA25C4-6EB3-4545-9879-ECFB7373DC63}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -437,8 +437,9 @@
       <c r="C2" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="1">
+        <f>C2-B2</f>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -451,8 +452,9 @@
       <c r="C3" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D5" si="0">C3-B3</f>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -465,8 +467,9 @@
       <c r="C4" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -479,8 +482,9 @@
       <c r="C5" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
